--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_10_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_10_genetic_schedule.xlsx
@@ -520,211 +520,234 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>MA 317 - Engineering Mathematics
+2B
+Room 141</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="50" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>8:30 AM - 9:00 AM</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="50" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>9:00 AM - 9:30 AM</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="50" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>9:30 AM - 10:00 AM</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
           <t>FN 303 - Finance
 2C
 Room 183</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>8:30 AM - 9:00 AM</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="50" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>9:00 AM - 9:30 AM</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>9:30 AM - 10:00 AM</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-    </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>CS 411 - Control Systems
+3B
+Room 206</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>PH 211 - Philosophy
+2E
+Room 176</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>CA 439 - Cultural Anthropology
+3E
+Room 240</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n"/>
+    </row>
+    <row r="16" ht="50" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>3:00 PM - 3:30 PM</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n"/>
+    </row>
+    <row r="17" ht="50" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>3:30 PM - 4:00 PM</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>MB 425 - Molecular Biology
+3D
+Room 10</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n"/>
+    </row>
+    <row r="18" ht="50" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>4:00 PM - 4:30 PM</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n"/>
+    </row>
+    <row r="19" ht="50" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>4:30 PM - 5:00 PM</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n"/>
+    </row>
+    <row r="20" ht="50" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>5:00 PM - 5:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="50" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>5:30 PM - 6:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="50" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>6:00 PM - 6:30 PM</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>CS 411 - Control Systems
+3B
+Room 186</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>FN 303 - Finance
+2C
+Room 155</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="50" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>6:30 PM - 7:00 PM</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
+    </row>
+    <row r="24" ht="50" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>7:00 PM - 7:30 PM</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>MB 425 - Molecular Biology
 3D
 Room 132</t>
         </is>
       </c>
-    </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>CA 439 - Cultural Anthropology
-3E
-Room 240</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3:00 PM - 3:30 PM</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>MB 425 - Molecular Biology
-3D
-Room 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="50" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>3:30 PM - 4:00 PM</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="50" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>4:00 PM - 4:30 PM</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="50" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>4:30 PM - 5:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="50" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>5:00 PM - 5:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="50" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>5:30 PM - 6:00 PM</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>CS 411 - Control Systems
-3B
-Room 186</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6:00 PM - 6:30 PM</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n"/>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>6:30 PM - 7:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>7:00 PM - 7:30 PM</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>FN 303 - Finance
-2C
-Room 155</t>
-        </is>
-      </c>
+      <c r="C24" s="2" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -750,15 +773,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B3:B5"/>
+  <mergeCells count="9">
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_10_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_10_genetic_schedule.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -37,6 +37,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,12 +91,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,11 +536,28 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>MA 317 - Engineering Mathematics
-2B
-Room 141</t>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>A1 IS 316 - IS/IT Security Management
+3A
+Room 208
+Emp: 10</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>A1 IS 316 - IS/IT Security Management
+3A
+Room 208
+Emp: 10</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>A2 IS 316 - IS/IT Security Management
+3A
+Room 208
+Emp: 10</t>
         </is>
       </c>
     </row>
@@ -532,7 +567,9 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="F3" s="4" t="n"/>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -540,7 +577,9 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="F4" s="4" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -548,13 +587,6 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>FN 303 - Finance
-2C
-Room 183</t>
-        </is>
-      </c>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -562,7 +594,6 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
     </row>
     <row r="7" ht="50" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -577,13 +608,6 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>CS 411 - Control Systems
-3B
-Room 206</t>
-        </is>
-      </c>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -591,7 +615,6 @@
           <t>11:30 AM - 12:00 PM</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -613,13 +636,6 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>PH 211 - Philosophy
-2E
-Room 176</t>
-        </is>
-      </c>
     </row>
     <row r="13" ht="50" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -627,7 +643,6 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -635,13 +650,6 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>CA 439 - Cultural Anthropology
-3E
-Room 240</t>
-        </is>
-      </c>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -649,7 +657,14 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n"/>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>A2 IS 316 - IS/IT Security Management
+3A
+Room 208
+Emp: 10</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -657,7 +672,7 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
+      <c r="F16" s="4" t="n"/>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -665,14 +680,7 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>MB 425 - Molecular Biology
-3D
-Room 10</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n"/>
+      <c r="F17" s="4" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -680,7 +688,6 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -688,7 +695,6 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -710,20 +716,6 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>CS 411 - Control Systems
-3B
-Room 186</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>FN 303 - Finance
-2C
-Room 155</t>
-        </is>
-      </c>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -731,8 +723,14 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>A1 IS 316 - IS/IT Security Management
+3A
+Room 303
+Emp: 10</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -740,14 +738,7 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>MB 425 - Molecular Biology
-3D
-Room 132</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n"/>
+      <c r="F24" s="3" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -755,7 +746,7 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n"/>
+      <c r="F25" s="3" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -763,7 +754,7 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n"/>
+      <c r="F26" s="3" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -773,16 +764,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B5:B6"/>
+  <mergeCells count="5">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F23:F26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
